--- a/output/damage/BRN_osm_tc__damage_1.xlsx
+++ b/output/damage/BRN_osm_tc__damage_1.xlsx
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.007605574262423e-08</v>
+        <v>0.00017111469569518</v>
       </c>
       <c r="F2" t="n">
-        <v>1.505704180696817e-08</v>
+        <v>0.000128336021771385</v>
       </c>
       <c r="G2" t="n">
-        <v>2.509506967828029e-08</v>
+        <v>0.000213893369618975</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.015211148524845e-08</v>
+        <v>0.00034222939139036</v>
       </c>
       <c r="F3" t="n">
-        <v>3.011408361393635e-08</v>
+        <v>0.00025667204354277</v>
       </c>
       <c r="G3" t="n">
-        <v>5.019013935656057e-08</v>
+        <v>0.0004277867392379501</v>
       </c>
     </row>
     <row r="4">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.003802787131211e-07</v>
+        <v>0.0008555734784759002</v>
       </c>
       <c r="F4" t="n">
-        <v>7.528520903484085e-08</v>
+        <v>0.0006416801088569252</v>
       </c>
       <c r="G4" t="n">
-        <v>1.254753483914015e-07</v>
+        <v>0.001069466848094875</v>
       </c>
     </row>
     <row r="5">
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.533205994292416e-15</v>
+        <v>3.27264899788595e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>2.649904495719312e-15</v>
+        <v>2.454486748414463e-09</v>
       </c>
       <c r="G5" t="n">
-        <v>4.416507492865522e-15</v>
+        <v>4.090811247357439e-09</v>
       </c>
     </row>
     <row r="6">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7.066411988584832e-15</v>
+        <v>6.5452979957719e-09</v>
       </c>
       <c r="F6" t="n">
-        <v>5.299808991438625e-15</v>
+        <v>4.908973496828926e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>8.833014985731043e-15</v>
+        <v>8.181622494714877e-09</v>
       </c>
     </row>
     <row r="7">
@@ -630,13 +630,13 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.766602997146209e-14</v>
+        <v>1.636324498942975e-08</v>
       </c>
       <c r="F7" t="n">
-        <v>1.324952247859656e-14</v>
+        <v>1.227243374207232e-08</v>
       </c>
       <c r="G7" t="n">
-        <v>2.208253746432761e-14</v>
+        <v>2.045405623678719e-08</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.140426488592574e-15</v>
+        <v>2.446900099135562e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>3.855319866444431e-15</v>
+        <v>1.835175074351672e-09</v>
       </c>
       <c r="G8" t="n">
-        <v>6.425533110740718e-15</v>
+        <v>3.058625123919454e-09</v>
       </c>
     </row>
     <row r="9">
@@ -688,13 +688,13 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.028085297718515e-14</v>
+        <v>4.893800198271125e-09</v>
       </c>
       <c r="F9" t="n">
-        <v>7.710639732888862e-15</v>
+        <v>3.670350148703345e-09</v>
       </c>
       <c r="G9" t="n">
-        <v>1.285106622148144e-14</v>
+        <v>6.117250247838908e-09</v>
       </c>
     </row>
     <row r="10">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.570213244296287e-14</v>
+        <v>1.223450049567782e-08</v>
       </c>
       <c r="F10" t="n">
-        <v>1.927659933222215e-14</v>
+        <v>9.17587537175836e-09</v>
       </c>
       <c r="G10" t="n">
-        <v>3.212766555370359e-14</v>
+        <v>1.529312561959727e-08</v>
       </c>
     </row>
     <row r="11">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.203432524579048e-13</v>
+        <v>1.436362198138726e-08</v>
       </c>
       <c r="F11" t="n">
-        <v>9.025743934342857e-14</v>
+        <v>1.077271648604045e-08</v>
       </c>
       <c r="G11" t="n">
-        <v>1.50429065572381e-13</v>
+        <v>1.795452747673408e-08</v>
       </c>
     </row>
     <row r="12">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.406865049158095e-13</v>
+        <v>2.872724396277452e-08</v>
       </c>
       <c r="F12" t="n">
-        <v>1.805148786868571e-13</v>
+        <v>2.15454329720809e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>3.00858131144762e-13</v>
+        <v>3.590905495346816e-08</v>
       </c>
     </row>
     <row r="13">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6.01716262289524e-13</v>
+        <v>7.181810990693632e-08</v>
       </c>
       <c r="F13" t="n">
-        <v>4.512871967171429e-13</v>
+        <v>5.386358243020223e-08</v>
       </c>
       <c r="G13" t="n">
-        <v>7.521453278619049e-13</v>
+        <v>8.97726373836704e-08</v>
       </c>
     </row>
     <row r="14">
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7.772537292567252e-15</v>
+        <v>1.630847374215529e-09</v>
       </c>
       <c r="F14" t="n">
-        <v>5.82940296942544e-15</v>
+        <v>1.223135530661647e-09</v>
       </c>
       <c r="G14" t="n">
-        <v>9.715671615709067e-15</v>
+        <v>2.038559217769411e-09</v>
       </c>
     </row>
     <row r="15">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.55450745851345e-14</v>
+        <v>3.261694748431057e-09</v>
       </c>
       <c r="F15" t="n">
-        <v>1.165880593885088e-14</v>
+        <v>2.446271061323293e-09</v>
       </c>
       <c r="G15" t="n">
-        <v>1.943134323141813e-14</v>
+        <v>4.077118435538822e-09</v>
       </c>
     </row>
     <row r="16">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3.886268646283627e-14</v>
+        <v>8.154236871077644e-09</v>
       </c>
       <c r="F16" t="n">
-        <v>2.91470148471272e-14</v>
+        <v>6.115677653308233e-09</v>
       </c>
       <c r="G16" t="n">
-        <v>4.857835807854534e-14</v>
+        <v>1.019279608884706e-08</v>
       </c>
     </row>
     <row r="17">
@@ -920,13 +920,13 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>269836.8677064556</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F17" t="n">
-        <v>202377.6507798417</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G17" t="n">
-        <v>337296.0846330696</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="18">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>539673.7354129113</v>
+        <v>84452.14439863086</v>
       </c>
       <c r="F18" t="n">
-        <v>404755.3015596835</v>
+        <v>63339.10829897314</v>
       </c>
       <c r="G18" t="n">
-        <v>674592.1692661392</v>
+        <v>105565.1804982886</v>
       </c>
     </row>
     <row r="19">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1349184.338532278</v>
+        <v>972.895279669608</v>
       </c>
       <c r="F19" t="n">
-        <v>1011888.253899209</v>
+        <v>729.6714597522059</v>
       </c>
       <c r="G19" t="n">
-        <v>1686480.423165348</v>
+        <v>1216.11909958701</v>
       </c>
     </row>
     <row r="20">
@@ -1007,13 +1007,13 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>195180.5293905482</v>
+        <v>29130.54433029818</v>
       </c>
       <c r="F20" t="n">
-        <v>146385.3970429112</v>
+        <v>21847.90824772364</v>
       </c>
       <c r="G20" t="n">
-        <v>243975.6617381853</v>
+        <v>36413.18041287273</v>
       </c>
     </row>
     <row r="21">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>390361.0587810964</v>
+        <v>59643.94480538867</v>
       </c>
       <c r="F21" t="n">
-        <v>292770.7940858224</v>
+        <v>44732.95860404151</v>
       </c>
       <c r="G21" t="n">
-        <v>487951.3234763706</v>
+        <v>74554.93100673585</v>
       </c>
     </row>
     <row r="22">
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>975902.6469527412</v>
+        <v>170721.5856987517</v>
       </c>
       <c r="F22" t="n">
-        <v>731926.9852145559</v>
+        <v>128041.1892740638</v>
       </c>
       <c r="G22" t="n">
-        <v>1219878.308690927</v>
+        <v>213401.9821234396</v>
       </c>
     </row>
     <row r="23">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.007605574262423e-08</v>
+        <v>0.00017111469569518</v>
       </c>
       <c r="F23" t="n">
-        <v>1.505704180696817e-08</v>
+        <v>0.000128336021771385</v>
       </c>
       <c r="G23" t="n">
-        <v>2.509506967828029e-08</v>
+        <v>0.000213893369618975</v>
       </c>
     </row>
     <row r="24">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.015211148524845e-08</v>
+        <v>0.00034222939139036</v>
       </c>
       <c r="F24" t="n">
-        <v>3.011408361393635e-08</v>
+        <v>0.00025667204354277</v>
       </c>
       <c r="G24" t="n">
-        <v>5.019013935656057e-08</v>
+        <v>0.0004277867392379501</v>
       </c>
     </row>
     <row r="25">
@@ -1152,13 +1152,13 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.003802787131211e-07</v>
+        <v>0.0008555734784759002</v>
       </c>
       <c r="F25" t="n">
-        <v>7.528520903484085e-08</v>
+        <v>0.0006416801088569252</v>
       </c>
       <c r="G25" t="n">
-        <v>1.254753483914015e-07</v>
+        <v>0.001069466848094875</v>
       </c>
     </row>
     <row r="26">
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.533205994292416e-15</v>
+        <v>3.27264899788595e-09</v>
       </c>
       <c r="F26" t="n">
-        <v>2.649904495719312e-15</v>
+        <v>2.454486748414463e-09</v>
       </c>
       <c r="G26" t="n">
-        <v>4.416507492865522e-15</v>
+        <v>4.090811247357439e-09</v>
       </c>
     </row>
     <row r="27">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7.066411988584832e-15</v>
+        <v>6.5452979957719e-09</v>
       </c>
       <c r="F27" t="n">
-        <v>5.299808991438625e-15</v>
+        <v>4.908973496828926e-09</v>
       </c>
       <c r="G27" t="n">
-        <v>8.833014985731043e-15</v>
+        <v>8.181622494714877e-09</v>
       </c>
     </row>
     <row r="28">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.766602997146209e-14</v>
+        <v>1.636324498942975e-08</v>
       </c>
       <c r="F28" t="n">
-        <v>1.324952247859656e-14</v>
+        <v>1.227243374207232e-08</v>
       </c>
       <c r="G28" t="n">
-        <v>2.208253746432761e-14</v>
+        <v>2.045405623678719e-08</v>
       </c>
     </row>
     <row r="29">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.140426488592574e-15</v>
+        <v>2.446900099135562e-09</v>
       </c>
       <c r="F29" t="n">
-        <v>3.855319866444431e-15</v>
+        <v>1.835175074351672e-09</v>
       </c>
       <c r="G29" t="n">
-        <v>6.425533110740718e-15</v>
+        <v>3.058625123919454e-09</v>
       </c>
     </row>
     <row r="30">
@@ -1297,13 +1297,13 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.028085297718515e-14</v>
+        <v>4.893800198271125e-09</v>
       </c>
       <c r="F30" t="n">
-        <v>7.710639732888862e-15</v>
+        <v>3.670350148703345e-09</v>
       </c>
       <c r="G30" t="n">
-        <v>1.285106622148144e-14</v>
+        <v>6.117250247838908e-09</v>
       </c>
     </row>
     <row r="31">
@@ -1326,13 +1326,13 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.570213244296287e-14</v>
+        <v>1.223450049567782e-08</v>
       </c>
       <c r="F31" t="n">
-        <v>1.927659933222215e-14</v>
+        <v>9.17587537175836e-09</v>
       </c>
       <c r="G31" t="n">
-        <v>3.212766555370359e-14</v>
+        <v>1.529312561959727e-08</v>
       </c>
     </row>
     <row r="32">
@@ -1355,13 +1355,13 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.203432524579048e-13</v>
+        <v>1.436362198138726e-08</v>
       </c>
       <c r="F32" t="n">
-        <v>9.025743934342857e-14</v>
+        <v>1.077271648604045e-08</v>
       </c>
       <c r="G32" t="n">
-        <v>1.50429065572381e-13</v>
+        <v>1.795452747673408e-08</v>
       </c>
     </row>
     <row r="33">
@@ -1384,13 +1384,13 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2.406865049158095e-13</v>
+        <v>2.872724396277452e-08</v>
       </c>
       <c r="F33" t="n">
-        <v>1.805148786868571e-13</v>
+        <v>2.15454329720809e-08</v>
       </c>
       <c r="G33" t="n">
-        <v>3.00858131144762e-13</v>
+        <v>3.590905495346816e-08</v>
       </c>
     </row>
     <row r="34">
@@ -1413,13 +1413,13 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6.01716262289524e-13</v>
+        <v>7.181810990693632e-08</v>
       </c>
       <c r="F34" t="n">
-        <v>4.512871967171429e-13</v>
+        <v>5.386358243020223e-08</v>
       </c>
       <c r="G34" t="n">
-        <v>7.521453278619049e-13</v>
+        <v>8.97726373836704e-08</v>
       </c>
     </row>
     <row r="35">
@@ -1442,13 +1442,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>7.772537292567252e-15</v>
+        <v>1.630847374215529e-09</v>
       </c>
       <c r="F35" t="n">
-        <v>5.82940296942544e-15</v>
+        <v>1.223135530661647e-09</v>
       </c>
       <c r="G35" t="n">
-        <v>9.715671615709067e-15</v>
+        <v>2.038559217769411e-09</v>
       </c>
     </row>
     <row r="36">
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.55450745851345e-14</v>
+        <v>3.261694748431057e-09</v>
       </c>
       <c r="F36" t="n">
-        <v>1.165880593885088e-14</v>
+        <v>2.446271061323293e-09</v>
       </c>
       <c r="G36" t="n">
-        <v>1.943134323141813e-14</v>
+        <v>4.077118435538822e-09</v>
       </c>
     </row>
     <row r="37">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.886268646283627e-14</v>
+        <v>8.154236871077644e-09</v>
       </c>
       <c r="F37" t="n">
-        <v>2.91470148471272e-14</v>
+        <v>6.115677653308233e-09</v>
       </c>
       <c r="G37" t="n">
-        <v>4.857835807854534e-14</v>
+        <v>1.019279608884706e-08</v>
       </c>
     </row>
     <row r="38">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>269836.8677064556</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F38" t="n">
-        <v>202377.6507798417</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G38" t="n">
-        <v>337296.0846330696</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="39">
@@ -1558,13 +1558,13 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>539673.7354129113</v>
+        <v>84452.14439863086</v>
       </c>
       <c r="F39" t="n">
-        <v>404755.3015596835</v>
+        <v>63339.10829897314</v>
       </c>
       <c r="G39" t="n">
-        <v>674592.1692661392</v>
+        <v>105565.1804982886</v>
       </c>
     </row>
     <row r="40">
@@ -1587,13 +1587,13 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1349184.338532278</v>
+        <v>972.895279669608</v>
       </c>
       <c r="F40" t="n">
-        <v>1011888.253899209</v>
+        <v>729.6714597522059</v>
       </c>
       <c r="G40" t="n">
-        <v>1686480.423165348</v>
+        <v>1216.11909958701</v>
       </c>
     </row>
     <row r="41">
@@ -1616,13 +1616,13 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>195180.5293905482</v>
+        <v>29130.54433029818</v>
       </c>
       <c r="F41" t="n">
-        <v>146385.3970429112</v>
+        <v>21847.90824772364</v>
       </c>
       <c r="G41" t="n">
-        <v>243975.6617381853</v>
+        <v>36413.18041287273</v>
       </c>
     </row>
     <row r="42">
@@ -1645,13 +1645,13 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>390361.0587810964</v>
+        <v>59643.94480538867</v>
       </c>
       <c r="F42" t="n">
-        <v>292770.7940858224</v>
+        <v>44732.95860404151</v>
       </c>
       <c r="G42" t="n">
-        <v>487951.3234763706</v>
+        <v>74554.93100673585</v>
       </c>
     </row>
     <row r="43">
@@ -1674,13 +1674,13 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>975902.6469527412</v>
+        <v>170721.5856987517</v>
       </c>
       <c r="F43" t="n">
-        <v>731926.9852145559</v>
+        <v>128041.1892740638</v>
       </c>
       <c r="G43" t="n">
-        <v>1219878.308690927</v>
+        <v>213401.9821234396</v>
       </c>
     </row>
     <row r="44">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.007605574262423e-08</v>
+        <v>0.00017111469569518</v>
       </c>
       <c r="F44" t="n">
-        <v>1.505704180696817e-08</v>
+        <v>0.000128336021771385</v>
       </c>
       <c r="G44" t="n">
-        <v>2.509506967828029e-08</v>
+        <v>0.000213893369618975</v>
       </c>
     </row>
     <row r="45">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4.015211148524845e-08</v>
+        <v>0.00034222939139036</v>
       </c>
       <c r="F45" t="n">
-        <v>3.011408361393635e-08</v>
+        <v>0.00025667204354277</v>
       </c>
       <c r="G45" t="n">
-        <v>5.019013935656057e-08</v>
+        <v>0.0004277867392379501</v>
       </c>
     </row>
     <row r="46">
@@ -1761,13 +1761,13 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1.003802787131211e-07</v>
+        <v>0.0008555734784759002</v>
       </c>
       <c r="F46" t="n">
-        <v>7.528520903484085e-08</v>
+        <v>0.0006416801088569252</v>
       </c>
       <c r="G46" t="n">
-        <v>1.254753483914015e-07</v>
+        <v>0.001069466848094875</v>
       </c>
     </row>
     <row r="47">
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3.533205994292416e-15</v>
+        <v>3.27264899788595e-09</v>
       </c>
       <c r="F47" t="n">
-        <v>2.649904495719312e-15</v>
+        <v>2.454486748414463e-09</v>
       </c>
       <c r="G47" t="n">
-        <v>4.416507492865522e-15</v>
+        <v>4.090811247357439e-09</v>
       </c>
     </row>
     <row r="48">
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7.066411988584832e-15</v>
+        <v>6.5452979957719e-09</v>
       </c>
       <c r="F48" t="n">
-        <v>5.299808991438625e-15</v>
+        <v>4.908973496828926e-09</v>
       </c>
       <c r="G48" t="n">
-        <v>8.833014985731043e-15</v>
+        <v>8.181622494714877e-09</v>
       </c>
     </row>
     <row r="49">
@@ -1848,13 +1848,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.766602997146209e-14</v>
+        <v>1.636324498942975e-08</v>
       </c>
       <c r="F49" t="n">
-        <v>1.324952247859656e-14</v>
+        <v>1.227243374207232e-08</v>
       </c>
       <c r="G49" t="n">
-        <v>2.208253746432761e-14</v>
+        <v>2.045405623678719e-08</v>
       </c>
     </row>
     <row r="50">
@@ -1877,13 +1877,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5.140426488592574e-15</v>
+        <v>2.446900099135562e-09</v>
       </c>
       <c r="F50" t="n">
-        <v>3.855319866444431e-15</v>
+        <v>1.835175074351672e-09</v>
       </c>
       <c r="G50" t="n">
-        <v>6.425533110740718e-15</v>
+        <v>3.058625123919454e-09</v>
       </c>
     </row>
     <row r="51">
@@ -1906,13 +1906,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.028085297718515e-14</v>
+        <v>4.893800198271125e-09</v>
       </c>
       <c r="F51" t="n">
-        <v>7.710639732888862e-15</v>
+        <v>3.670350148703345e-09</v>
       </c>
       <c r="G51" t="n">
-        <v>1.285106622148144e-14</v>
+        <v>6.117250247838908e-09</v>
       </c>
     </row>
     <row r="52">
@@ -1935,13 +1935,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2.570213244296287e-14</v>
+        <v>1.223450049567782e-08</v>
       </c>
       <c r="F52" t="n">
-        <v>1.927659933222215e-14</v>
+        <v>9.17587537175836e-09</v>
       </c>
       <c r="G52" t="n">
-        <v>3.212766555370359e-14</v>
+        <v>1.529312561959727e-08</v>
       </c>
     </row>
     <row r="53">
@@ -1964,13 +1964,13 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.203432524579048e-13</v>
+        <v>1.436362198138726e-08</v>
       </c>
       <c r="F53" t="n">
-        <v>9.025743934342857e-14</v>
+        <v>1.077271648604045e-08</v>
       </c>
       <c r="G53" t="n">
-        <v>1.50429065572381e-13</v>
+        <v>1.795452747673408e-08</v>
       </c>
     </row>
     <row r="54">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2.406865049158095e-13</v>
+        <v>2.872724396277452e-08</v>
       </c>
       <c r="F54" t="n">
-        <v>1.805148786868571e-13</v>
+        <v>2.15454329720809e-08</v>
       </c>
       <c r="G54" t="n">
-        <v>3.00858131144762e-13</v>
+        <v>3.590905495346816e-08</v>
       </c>
     </row>
     <row r="55">
@@ -2022,13 +2022,13 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6.01716262289524e-13</v>
+        <v>7.181810990693632e-08</v>
       </c>
       <c r="F55" t="n">
-        <v>4.512871967171429e-13</v>
+        <v>5.386358243020223e-08</v>
       </c>
       <c r="G55" t="n">
-        <v>7.521453278619049e-13</v>
+        <v>8.97726373836704e-08</v>
       </c>
     </row>
     <row r="56">
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>7.772537292567252e-15</v>
+        <v>1.630847374215529e-09</v>
       </c>
       <c r="F56" t="n">
-        <v>5.82940296942544e-15</v>
+        <v>1.223135530661647e-09</v>
       </c>
       <c r="G56" t="n">
-        <v>9.715671615709067e-15</v>
+        <v>2.038559217769411e-09</v>
       </c>
     </row>
     <row r="57">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.55450745851345e-14</v>
+        <v>3.261694748431057e-09</v>
       </c>
       <c r="F57" t="n">
-        <v>1.165880593885088e-14</v>
+        <v>2.446271061323293e-09</v>
       </c>
       <c r="G57" t="n">
-        <v>1.943134323141813e-14</v>
+        <v>4.077118435538822e-09</v>
       </c>
     </row>
     <row r="58">
@@ -2109,13 +2109,13 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3.886268646283627e-14</v>
+        <v>8.154236871077644e-09</v>
       </c>
       <c r="F58" t="n">
-        <v>2.91470148471272e-14</v>
+        <v>6.115677653308233e-09</v>
       </c>
       <c r="G58" t="n">
-        <v>4.857835807854534e-14</v>
+        <v>1.019279608884706e-08</v>
       </c>
     </row>
     <row r="59">
@@ -2138,13 +2138,13 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>269836.8677064556</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F59" t="n">
-        <v>202377.6507798417</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G59" t="n">
-        <v>337296.0846330696</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="60">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>539673.7354129113</v>
+        <v>84452.14439863086</v>
       </c>
       <c r="F60" t="n">
-        <v>404755.3015596835</v>
+        <v>63339.10829897314</v>
       </c>
       <c r="G60" t="n">
-        <v>674592.1692661392</v>
+        <v>105565.1804982886</v>
       </c>
     </row>
     <row r="61">
@@ -2196,13 +2196,13 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1349184.338532278</v>
+        <v>972.895279669608</v>
       </c>
       <c r="F61" t="n">
-        <v>1011888.253899209</v>
+        <v>729.6714597522059</v>
       </c>
       <c r="G61" t="n">
-        <v>1686480.423165348</v>
+        <v>1216.11909958701</v>
       </c>
     </row>
     <row r="62">
@@ -2225,13 +2225,13 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>195180.5293905482</v>
+        <v>29130.54433029818</v>
       </c>
       <c r="F62" t="n">
-        <v>146385.3970429112</v>
+        <v>21847.90824772364</v>
       </c>
       <c r="G62" t="n">
-        <v>243975.6617381853</v>
+        <v>36413.18041287273</v>
       </c>
     </row>
     <row r="63">
@@ -2254,13 +2254,13 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>390361.0587810964</v>
+        <v>59643.94480538867</v>
       </c>
       <c r="F63" t="n">
-        <v>292770.7940858224</v>
+        <v>44732.95860404151</v>
       </c>
       <c r="G63" t="n">
-        <v>487951.3234763706</v>
+        <v>74554.93100673585</v>
       </c>
     </row>
     <row r="64">
@@ -2283,13 +2283,13 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>975902.6469527412</v>
+        <v>170721.5856987517</v>
       </c>
       <c r="F64" t="n">
-        <v>731926.9852145559</v>
+        <v>128041.1892740638</v>
       </c>
       <c r="G64" t="n">
-        <v>1219878.308690927</v>
+        <v>213401.9821234396</v>
       </c>
     </row>
     <row r="65">
@@ -2312,13 +2312,13 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.730588551559346e-08</v>
+        <v>0.0007155871643123309</v>
       </c>
       <c r="F65" t="n">
-        <v>2.797941413669509e-08</v>
+        <v>0.0005366903732342482</v>
       </c>
       <c r="G65" t="n">
-        <v>4.663235689449183e-08</v>
+        <v>0.0008944839553904138</v>
       </c>
     </row>
     <row r="66">
@@ -2341,13 +2341,13 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>7.461177103118692e-08</v>
+        <v>0.001431174328624662</v>
       </c>
       <c r="F66" t="n">
-        <v>5.595882827339018e-08</v>
+        <v>0.001073380746468496</v>
       </c>
       <c r="G66" t="n">
-        <v>9.326471378898366e-08</v>
+        <v>0.001788967910780828</v>
       </c>
     </row>
     <row r="67">
@@ -2370,13 +2370,13 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1.865294275779673e-07</v>
+        <v>0.003577935821561655</v>
       </c>
       <c r="F67" t="n">
-        <v>1.398970706834755e-07</v>
+        <v>0.002683451866171241</v>
       </c>
       <c r="G67" t="n">
-        <v>2.331617844724591e-07</v>
+        <v>0.00447241977695207</v>
       </c>
     </row>
     <row r="68">
@@ -2399,13 +2399,13 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6.579076767861446e-15</v>
+        <v>1.427006269547984e-08</v>
       </c>
       <c r="F68" t="n">
-        <v>4.934307575896084e-15</v>
+        <v>1.070254702160988e-08</v>
       </c>
       <c r="G68" t="n">
-        <v>8.223845959826809e-15</v>
+        <v>1.78375783693498e-08</v>
       </c>
     </row>
     <row r="69">
@@ -2428,13 +2428,13 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1.315815353572289e-14</v>
+        <v>2.854012539095967e-08</v>
       </c>
       <c r="F69" t="n">
-        <v>9.868615151792169e-15</v>
+        <v>2.140509404321976e-08</v>
       </c>
       <c r="G69" t="n">
-        <v>1.644769191965362e-14</v>
+        <v>3.567515673869959e-08</v>
       </c>
     </row>
     <row r="70">
@@ -2457,13 +2457,13 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3.289538383930724e-14</v>
+        <v>7.135031347739919e-08</v>
       </c>
       <c r="F70" t="n">
-        <v>2.467153787948042e-14</v>
+        <v>5.351273510804938e-08</v>
       </c>
       <c r="G70" t="n">
-        <v>4.111922979913405e-14</v>
+        <v>8.918789184674899e-08</v>
       </c>
     </row>
     <row r="71">
@@ -2486,13 +2486,13 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>9.571267452607202e-15</v>
+        <v>1.064928135261477e-08</v>
       </c>
       <c r="F71" t="n">
-        <v>7.178450589455402e-15</v>
+        <v>7.986961014461082e-09</v>
       </c>
       <c r="G71" t="n">
-        <v>1.196408431575901e-14</v>
+        <v>1.331160169076847e-08</v>
       </c>
     </row>
     <row r="72">
@@ -2515,13 +2515,13 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1.91425349052144e-14</v>
+        <v>2.129856270522955e-08</v>
       </c>
       <c r="F72" t="n">
-        <v>1.43569011789108e-14</v>
+        <v>1.597392202892216e-08</v>
       </c>
       <c r="G72" t="n">
-        <v>2.392816863151801e-14</v>
+        <v>2.662320338153694e-08</v>
       </c>
     </row>
     <row r="73">
@@ -2544,13 +2544,13 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4.785633726303602e-14</v>
+        <v>5.324640676307387e-08</v>
       </c>
       <c r="F73" t="n">
-        <v>3.589225294727701e-14</v>
+        <v>3.993480507230541e-08</v>
       </c>
       <c r="G73" t="n">
-        <v>5.982042157879503e-14</v>
+        <v>6.655800845384235e-08</v>
       </c>
     </row>
     <row r="74">
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.240192504159597e-13</v>
+        <v>6.210977698841909e-08</v>
       </c>
       <c r="F74" t="n">
-        <v>1.680144378119698e-13</v>
+        <v>4.658233274131432e-08</v>
       </c>
       <c r="G74" t="n">
-        <v>2.800240630199496e-13</v>
+        <v>7.763722123552388e-08</v>
       </c>
     </row>
     <row r="75">
@@ -2602,13 +2602,13 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4.480385008319194e-13</v>
+        <v>1.242195539768382e-07</v>
       </c>
       <c r="F75" t="n">
-        <v>3.360288756239395e-13</v>
+        <v>9.316466548262864e-08</v>
       </c>
       <c r="G75" t="n">
-        <v>5.600481260398993e-13</v>
+        <v>1.552744424710478e-07</v>
       </c>
     </row>
     <row r="76">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.120096252079799e-12</v>
+        <v>3.105488849420955e-07</v>
       </c>
       <c r="F76" t="n">
-        <v>8.400721890598489e-13</v>
+        <v>2.329116637065716e-07</v>
       </c>
       <c r="G76" t="n">
-        <v>1.400120315099748e-12</v>
+        <v>3.881861061776194e-07</v>
       </c>
     </row>
     <row r="77">
@@ -2660,13 +2660,13 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.447019812619263e-14</v>
+        <v>7.075160436683737e-09</v>
       </c>
       <c r="F77" t="n">
-        <v>1.085264859464448e-14</v>
+        <v>5.306370327512803e-09</v>
       </c>
       <c r="G77" t="n">
-        <v>1.808774765774079e-14</v>
+        <v>8.843950545854673e-09</v>
       </c>
     </row>
     <row r="78">
@@ -2689,13 +2689,13 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2.894039625238527e-14</v>
+        <v>1.415032087336747e-08</v>
       </c>
       <c r="F78" t="n">
-        <v>2.170529718928895e-14</v>
+        <v>1.061274065502561e-08</v>
       </c>
       <c r="G78" t="n">
-        <v>3.617549531548159e-14</v>
+        <v>1.768790109170935e-08</v>
       </c>
     </row>
     <row r="79">
@@ -2718,13 +2718,13 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>7.235099063096318e-14</v>
+        <v>3.537580218341869e-08</v>
       </c>
       <c r="F79" t="n">
-        <v>5.426324297322238e-14</v>
+        <v>2.653185163756402e-08</v>
       </c>
       <c r="G79" t="n">
-        <v>9.043873828870397e-14</v>
+        <v>4.421975272927337e-08</v>
       </c>
     </row>
     <row r="80">
@@ -2747,13 +2747,13 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>277135.503297151</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F80" t="n">
-        <v>207851.6274728633</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G80" t="n">
-        <v>346419.3791214388</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="81">
@@ -2776,13 +2776,13 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>554271.006594302</v>
+        <v>88404.57745730001</v>
       </c>
       <c r="F81" t="n">
-        <v>415703.2549457265</v>
+        <v>66303.43309297501</v>
       </c>
       <c r="G81" t="n">
-        <v>692838.7582428775</v>
+        <v>110505.721821625</v>
       </c>
     </row>
     <row r="82">
@@ -2805,13 +2805,13 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1385677.516485755</v>
+        <v>4266.58949522723</v>
       </c>
       <c r="F82" t="n">
-        <v>1039258.137364316</v>
+        <v>3199.942121420423</v>
       </c>
       <c r="G82" t="n">
-        <v>1732096.895607194</v>
+        <v>5333.236869034037</v>
       </c>
     </row>
     <row r="83">
@@ -2834,13 +2834,13 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>212210.6791021708</v>
+        <v>31765.49970274428</v>
       </c>
       <c r="F83" t="n">
-        <v>159158.0093266281</v>
+        <v>23824.12477705821</v>
       </c>
       <c r="G83" t="n">
-        <v>265263.3488777135</v>
+        <v>39706.87462843035</v>
       </c>
     </row>
     <row r="84">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>424421.3582043416</v>
+        <v>63596.37786405781</v>
       </c>
       <c r="F84" t="n">
-        <v>318316.0186532562</v>
+        <v>47697.28339804336</v>
       </c>
       <c r="G84" t="n">
-        <v>530526.6977554271</v>
+        <v>79495.47233007227</v>
       </c>
     </row>
     <row r="85">
@@ -2892,13 +2892,13 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1061053.395510854</v>
+        <v>193777.4452076551</v>
       </c>
       <c r="F85" t="n">
-        <v>795790.0466331406</v>
+        <v>145333.0839057413</v>
       </c>
       <c r="G85" t="n">
-        <v>1326316.744388568</v>
+        <v>242221.8065095688</v>
       </c>
     </row>
     <row r="86">
@@ -2921,13 +2921,13 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2.007605574262423e-08</v>
+        <v>0.00017111469569518</v>
       </c>
       <c r="F86" t="n">
-        <v>1.505704180696817e-08</v>
+        <v>0.000128336021771385</v>
       </c>
       <c r="G86" t="n">
-        <v>2.509506967828029e-08</v>
+        <v>0.000213893369618975</v>
       </c>
     </row>
     <row r="87">
@@ -2950,13 +2950,13 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>4.015211148524845e-08</v>
+        <v>0.00034222939139036</v>
       </c>
       <c r="F87" t="n">
-        <v>3.011408361393635e-08</v>
+        <v>0.00025667204354277</v>
       </c>
       <c r="G87" t="n">
-        <v>5.019013935656057e-08</v>
+        <v>0.0004277867392379501</v>
       </c>
     </row>
     <row r="88">
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1.003802787131211e-07</v>
+        <v>0.0008555734784759002</v>
       </c>
       <c r="F88" t="n">
-        <v>7.528520903484085e-08</v>
+        <v>0.0006416801088569252</v>
       </c>
       <c r="G88" t="n">
-        <v>1.254753483914015e-07</v>
+        <v>0.001069466848094875</v>
       </c>
     </row>
     <row r="89">
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3.533205994292416e-15</v>
+        <v>3.27264899788595e-09</v>
       </c>
       <c r="F89" t="n">
-        <v>2.649904495719312e-15</v>
+        <v>2.454486748414463e-09</v>
       </c>
       <c r="G89" t="n">
-        <v>4.416507492865522e-15</v>
+        <v>4.090811247357439e-09</v>
       </c>
     </row>
     <row r="90">
@@ -3037,13 +3037,13 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>7.066411988584832e-15</v>
+        <v>6.5452979957719e-09</v>
       </c>
       <c r="F90" t="n">
-        <v>5.299808991438625e-15</v>
+        <v>4.908973496828926e-09</v>
       </c>
       <c r="G90" t="n">
-        <v>8.833014985731043e-15</v>
+        <v>8.181622494714877e-09</v>
       </c>
     </row>
     <row r="91">
@@ -3066,13 +3066,13 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1.766602997146209e-14</v>
+        <v>1.636324498942975e-08</v>
       </c>
       <c r="F91" t="n">
-        <v>1.324952247859656e-14</v>
+        <v>1.227243374207232e-08</v>
       </c>
       <c r="G91" t="n">
-        <v>2.208253746432761e-14</v>
+        <v>2.045405623678719e-08</v>
       </c>
     </row>
     <row r="92">
@@ -3095,13 +3095,13 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5.140426488592574e-15</v>
+        <v>2.446900099135562e-09</v>
       </c>
       <c r="F92" t="n">
-        <v>3.855319866444431e-15</v>
+        <v>1.835175074351672e-09</v>
       </c>
       <c r="G92" t="n">
-        <v>6.425533110740718e-15</v>
+        <v>3.058625123919454e-09</v>
       </c>
     </row>
     <row r="93">
@@ -3124,13 +3124,13 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1.028085297718515e-14</v>
+        <v>4.893800198271125e-09</v>
       </c>
       <c r="F93" t="n">
-        <v>7.710639732888862e-15</v>
+        <v>3.670350148703345e-09</v>
       </c>
       <c r="G93" t="n">
-        <v>1.285106622148144e-14</v>
+        <v>6.117250247838908e-09</v>
       </c>
     </row>
     <row r="94">
@@ -3153,13 +3153,13 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2.570213244296287e-14</v>
+        <v>1.223450049567782e-08</v>
       </c>
       <c r="F94" t="n">
-        <v>1.927659933222215e-14</v>
+        <v>9.17587537175836e-09</v>
       </c>
       <c r="G94" t="n">
-        <v>3.212766555370359e-14</v>
+        <v>1.529312561959727e-08</v>
       </c>
     </row>
     <row r="95">
@@ -3182,13 +3182,13 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1.203432524579048e-13</v>
+        <v>1.436362198138726e-08</v>
       </c>
       <c r="F95" t="n">
-        <v>9.025743934342857e-14</v>
+        <v>1.077271648604045e-08</v>
       </c>
       <c r="G95" t="n">
-        <v>1.50429065572381e-13</v>
+        <v>1.795452747673408e-08</v>
       </c>
     </row>
     <row r="96">
@@ -3211,13 +3211,13 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2.406865049158095e-13</v>
+        <v>2.872724396277452e-08</v>
       </c>
       <c r="F96" t="n">
-        <v>1.805148786868571e-13</v>
+        <v>2.15454329720809e-08</v>
       </c>
       <c r="G96" t="n">
-        <v>3.00858131144762e-13</v>
+        <v>3.590905495346816e-08</v>
       </c>
     </row>
     <row r="97">
@@ -3240,13 +3240,13 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6.01716262289524e-13</v>
+        <v>7.181810990693632e-08</v>
       </c>
       <c r="F97" t="n">
-        <v>4.512871967171429e-13</v>
+        <v>5.386358243020223e-08</v>
       </c>
       <c r="G97" t="n">
-        <v>7.521453278619049e-13</v>
+        <v>8.97726373836704e-08</v>
       </c>
     </row>
     <row r="98">
@@ -3269,13 +3269,13 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.772537292567252e-15</v>
+        <v>1.630847374215529e-09</v>
       </c>
       <c r="F98" t="n">
-        <v>5.82940296942544e-15</v>
+        <v>1.223135530661647e-09</v>
       </c>
       <c r="G98" t="n">
-        <v>9.715671615709067e-15</v>
+        <v>2.038559217769411e-09</v>
       </c>
     </row>
     <row r="99">
@@ -3298,13 +3298,13 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1.55450745851345e-14</v>
+        <v>3.261694748431057e-09</v>
       </c>
       <c r="F99" t="n">
-        <v>1.165880593885088e-14</v>
+        <v>2.446271061323293e-09</v>
       </c>
       <c r="G99" t="n">
-        <v>1.943134323141813e-14</v>
+        <v>4.077118435538822e-09</v>
       </c>
     </row>
     <row r="100">
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3.886268646283627e-14</v>
+        <v>8.154236871077644e-09</v>
       </c>
       <c r="F100" t="n">
-        <v>2.91470148471272e-14</v>
+        <v>6.115677653308233e-09</v>
       </c>
       <c r="G100" t="n">
-        <v>4.857835807854534e-14</v>
+        <v>1.019279608884706e-08</v>
       </c>
     </row>
     <row r="101">
@@ -3356,13 +3356,13 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>269836.8677064556</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F101" t="n">
-        <v>202377.6507798417</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G101" t="n">
-        <v>337296.0846330696</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="102">
@@ -3385,13 +3385,13 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>539673.7354129113</v>
+        <v>84452.14439863086</v>
       </c>
       <c r="F102" t="n">
-        <v>404755.3015596835</v>
+        <v>63339.10829897314</v>
       </c>
       <c r="G102" t="n">
-        <v>674592.1692661392</v>
+        <v>105565.1804982886</v>
       </c>
     </row>
     <row r="103">
@@ -3414,13 +3414,13 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1349184.338532278</v>
+        <v>972.895279669608</v>
       </c>
       <c r="F103" t="n">
-        <v>1011888.253899209</v>
+        <v>729.6714597522059</v>
       </c>
       <c r="G103" t="n">
-        <v>1686480.423165348</v>
+        <v>1216.11909958701</v>
       </c>
     </row>
     <row r="104">
@@ -3443,13 +3443,13 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>195180.5293905482</v>
+        <v>29130.54433029818</v>
       </c>
       <c r="F104" t="n">
-        <v>146385.3970429112</v>
+        <v>21847.90824772364</v>
       </c>
       <c r="G104" t="n">
-        <v>243975.6617381853</v>
+        <v>36413.18041287273</v>
       </c>
     </row>
     <row r="105">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>390361.0587810964</v>
+        <v>59643.94480538867</v>
       </c>
       <c r="F105" t="n">
-        <v>292770.7940858224</v>
+        <v>44732.95860404151</v>
       </c>
       <c r="G105" t="n">
-        <v>487951.3234763706</v>
+        <v>74554.93100673585</v>
       </c>
     </row>
     <row r="106">
@@ -3501,13 +3501,13 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>975902.6469527412</v>
+        <v>170721.5856987517</v>
       </c>
       <c r="F106" t="n">
-        <v>731926.9852145559</v>
+        <v>128041.1892740638</v>
       </c>
       <c r="G106" t="n">
-        <v>1219878.308690927</v>
+        <v>213401.9821234396</v>
       </c>
     </row>
     <row r="107">
@@ -3530,13 +3530,13 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.007605574262423e-08</v>
+        <v>0.00017111469569518</v>
       </c>
       <c r="F107" t="n">
-        <v>1.505704180696817e-08</v>
+        <v>0.000128336021771385</v>
       </c>
       <c r="G107" t="n">
-        <v>2.509506967828029e-08</v>
+        <v>0.000213893369618975</v>
       </c>
     </row>
     <row r="108">
@@ -3559,13 +3559,13 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>4.015211148524845e-08</v>
+        <v>0.00034222939139036</v>
       </c>
       <c r="F108" t="n">
-        <v>3.011408361393635e-08</v>
+        <v>0.00025667204354277</v>
       </c>
       <c r="G108" t="n">
-        <v>5.019013935656057e-08</v>
+        <v>0.0004277867392379501</v>
       </c>
     </row>
     <row r="109">
@@ -3588,13 +3588,13 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1.003802787131211e-07</v>
+        <v>0.0008555734784759002</v>
       </c>
       <c r="F109" t="n">
-        <v>7.528520903484085e-08</v>
+        <v>0.0006416801088569252</v>
       </c>
       <c r="G109" t="n">
-        <v>1.254753483914015e-07</v>
+        <v>0.001069466848094875</v>
       </c>
     </row>
     <row r="110">
@@ -3617,13 +3617,13 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>3.533205994292416e-15</v>
+        <v>3.27264899788595e-09</v>
       </c>
       <c r="F110" t="n">
-        <v>2.649904495719312e-15</v>
+        <v>2.454486748414463e-09</v>
       </c>
       <c r="G110" t="n">
-        <v>4.416507492865522e-15</v>
+        <v>4.090811247357439e-09</v>
       </c>
     </row>
     <row r="111">
@@ -3646,13 +3646,13 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>7.066411988584832e-15</v>
+        <v>6.5452979957719e-09</v>
       </c>
       <c r="F111" t="n">
-        <v>5.299808991438625e-15</v>
+        <v>4.908973496828926e-09</v>
       </c>
       <c r="G111" t="n">
-        <v>8.833014985731043e-15</v>
+        <v>8.181622494714877e-09</v>
       </c>
     </row>
     <row r="112">
@@ -3675,13 +3675,13 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1.766602997146209e-14</v>
+        <v>1.636324498942975e-08</v>
       </c>
       <c r="F112" t="n">
-        <v>1.324952247859656e-14</v>
+        <v>1.227243374207232e-08</v>
       </c>
       <c r="G112" t="n">
-        <v>2.208253746432761e-14</v>
+        <v>2.045405623678719e-08</v>
       </c>
     </row>
     <row r="113">
@@ -3704,13 +3704,13 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>5.140426488592574e-15</v>
+        <v>2.446900099135562e-09</v>
       </c>
       <c r="F113" t="n">
-        <v>3.855319866444431e-15</v>
+        <v>1.835175074351672e-09</v>
       </c>
       <c r="G113" t="n">
-        <v>6.425533110740718e-15</v>
+        <v>3.058625123919454e-09</v>
       </c>
     </row>
     <row r="114">
@@ -3733,13 +3733,13 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1.028085297718515e-14</v>
+        <v>4.893800198271125e-09</v>
       </c>
       <c r="F114" t="n">
-        <v>7.710639732888862e-15</v>
+        <v>3.670350148703345e-09</v>
       </c>
       <c r="G114" t="n">
-        <v>1.285106622148144e-14</v>
+        <v>6.117250247838908e-09</v>
       </c>
     </row>
     <row r="115">
@@ -3762,13 +3762,13 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2.570213244296287e-14</v>
+        <v>1.223450049567782e-08</v>
       </c>
       <c r="F115" t="n">
-        <v>1.927659933222215e-14</v>
+        <v>9.17587537175836e-09</v>
       </c>
       <c r="G115" t="n">
-        <v>3.212766555370359e-14</v>
+        <v>1.529312561959727e-08</v>
       </c>
     </row>
     <row r="116">
@@ -3791,13 +3791,13 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1.203432524579048e-13</v>
+        <v>1.436362198138726e-08</v>
       </c>
       <c r="F116" t="n">
-        <v>9.025743934342857e-14</v>
+        <v>1.077271648604045e-08</v>
       </c>
       <c r="G116" t="n">
-        <v>1.50429065572381e-13</v>
+        <v>1.795452747673408e-08</v>
       </c>
     </row>
     <row r="117">
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2.406865049158095e-13</v>
+        <v>2.872724396277452e-08</v>
       </c>
       <c r="F117" t="n">
-        <v>1.805148786868571e-13</v>
+        <v>2.15454329720809e-08</v>
       </c>
       <c r="G117" t="n">
-        <v>3.00858131144762e-13</v>
+        <v>3.590905495346816e-08</v>
       </c>
     </row>
     <row r="118">
@@ -3849,13 +3849,13 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6.01716262289524e-13</v>
+        <v>7.181810990693632e-08</v>
       </c>
       <c r="F118" t="n">
-        <v>4.512871967171429e-13</v>
+        <v>5.386358243020223e-08</v>
       </c>
       <c r="G118" t="n">
-        <v>7.521453278619049e-13</v>
+        <v>8.97726373836704e-08</v>
       </c>
     </row>
     <row r="119">
@@ -3878,13 +3878,13 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>7.772537292567252e-15</v>
+        <v>1.630847374215529e-09</v>
       </c>
       <c r="F119" t="n">
-        <v>5.82940296942544e-15</v>
+        <v>1.223135530661647e-09</v>
       </c>
       <c r="G119" t="n">
-        <v>9.715671615709067e-15</v>
+        <v>2.038559217769411e-09</v>
       </c>
     </row>
     <row r="120">
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1.55450745851345e-14</v>
+        <v>3.261694748431057e-09</v>
       </c>
       <c r="F120" t="n">
-        <v>1.165880593885088e-14</v>
+        <v>2.446271061323293e-09</v>
       </c>
       <c r="G120" t="n">
-        <v>1.943134323141813e-14</v>
+        <v>4.077118435538822e-09</v>
       </c>
     </row>
     <row r="121">
@@ -3936,13 +3936,13 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>3.886268646283627e-14</v>
+        <v>8.154236871077644e-09</v>
       </c>
       <c r="F121" t="n">
-        <v>2.91470148471272e-14</v>
+        <v>6.115677653308233e-09</v>
       </c>
       <c r="G121" t="n">
-        <v>4.857835807854534e-14</v>
+        <v>1.019279608884706e-08</v>
       </c>
     </row>
     <row r="122">
@@ -3965,13 +3965,13 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>269836.8677064556</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F122" t="n">
-        <v>202377.6507798417</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G122" t="n">
-        <v>337296.0846330696</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="123">
@@ -3994,13 +3994,13 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>539673.7354129113</v>
+        <v>84452.14439863086</v>
       </c>
       <c r="F123" t="n">
-        <v>404755.3015596835</v>
+        <v>63339.10829897314</v>
       </c>
       <c r="G123" t="n">
-        <v>674592.1692661392</v>
+        <v>105565.1804982886</v>
       </c>
     </row>
     <row r="124">
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1349184.338532278</v>
+        <v>972.895279669608</v>
       </c>
       <c r="F124" t="n">
-        <v>1011888.253899209</v>
+        <v>729.6714597522059</v>
       </c>
       <c r="G124" t="n">
-        <v>1686480.423165348</v>
+        <v>1216.11909958701</v>
       </c>
     </row>
     <row r="125">
@@ -4052,13 +4052,13 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>195180.5293905482</v>
+        <v>29130.54433029818</v>
       </c>
       <c r="F125" t="n">
-        <v>146385.3970429112</v>
+        <v>21847.90824772364</v>
       </c>
       <c r="G125" t="n">
-        <v>243975.6617381853</v>
+        <v>36413.18041287273</v>
       </c>
     </row>
     <row r="126">
@@ -4081,13 +4081,13 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>390361.0587810964</v>
+        <v>59643.94480538867</v>
       </c>
       <c r="F126" t="n">
-        <v>292770.7940858224</v>
+        <v>44732.95860404151</v>
       </c>
       <c r="G126" t="n">
-        <v>487951.3234763706</v>
+        <v>74554.93100673585</v>
       </c>
     </row>
     <row r="127">
@@ -4110,13 +4110,13 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>975902.6469527412</v>
+        <v>170721.5856987517</v>
       </c>
       <c r="F127" t="n">
-        <v>731926.9852145559</v>
+        <v>128041.1892740638</v>
       </c>
       <c r="G127" t="n">
-        <v>1219878.308690927</v>
+        <v>213401.9821234396</v>
       </c>
     </row>
     <row r="128">
@@ -4139,13 +4139,13 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2.007605574262423e-08</v>
+        <v>0.00017111469569518</v>
       </c>
       <c r="F128" t="n">
-        <v>1.505704180696817e-08</v>
+        <v>0.000128336021771385</v>
       </c>
       <c r="G128" t="n">
-        <v>2.509506967828029e-08</v>
+        <v>0.000213893369618975</v>
       </c>
     </row>
     <row r="129">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4.015211148524845e-08</v>
+        <v>0.00034222939139036</v>
       </c>
       <c r="F129" t="n">
-        <v>3.011408361393635e-08</v>
+        <v>0.00025667204354277</v>
       </c>
       <c r="G129" t="n">
-        <v>5.019013935656057e-08</v>
+        <v>0.0004277867392379501</v>
       </c>
     </row>
     <row r="130">
@@ -4197,13 +4197,13 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1.003802787131211e-07</v>
+        <v>0.0008555734784759002</v>
       </c>
       <c r="F130" t="n">
-        <v>7.528520903484085e-08</v>
+        <v>0.0006416801088569252</v>
       </c>
       <c r="G130" t="n">
-        <v>1.254753483914015e-07</v>
+        <v>0.001069466848094875</v>
       </c>
     </row>
     <row r="131">
@@ -4226,13 +4226,13 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>3.533205994292416e-15</v>
+        <v>3.27264899788595e-09</v>
       </c>
       <c r="F131" t="n">
-        <v>2.649904495719312e-15</v>
+        <v>2.454486748414463e-09</v>
       </c>
       <c r="G131" t="n">
-        <v>4.416507492865522e-15</v>
+        <v>4.090811247357439e-09</v>
       </c>
     </row>
     <row r="132">
@@ -4255,13 +4255,13 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>7.066411988584832e-15</v>
+        <v>6.5452979957719e-09</v>
       </c>
       <c r="F132" t="n">
-        <v>5.299808991438625e-15</v>
+        <v>4.908973496828926e-09</v>
       </c>
       <c r="G132" t="n">
-        <v>8.833014985731043e-15</v>
+        <v>8.181622494714877e-09</v>
       </c>
     </row>
     <row r="133">
@@ -4284,13 +4284,13 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1.766602997146209e-14</v>
+        <v>1.636324498942975e-08</v>
       </c>
       <c r="F133" t="n">
-        <v>1.324952247859656e-14</v>
+        <v>1.227243374207232e-08</v>
       </c>
       <c r="G133" t="n">
-        <v>2.208253746432761e-14</v>
+        <v>2.045405623678719e-08</v>
       </c>
     </row>
     <row r="134">
@@ -4313,13 +4313,13 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>5.140426488592574e-15</v>
+        <v>2.446900099135562e-09</v>
       </c>
       <c r="F134" t="n">
-        <v>3.855319866444431e-15</v>
+        <v>1.835175074351672e-09</v>
       </c>
       <c r="G134" t="n">
-        <v>6.425533110740718e-15</v>
+        <v>3.058625123919454e-09</v>
       </c>
     </row>
     <row r="135">
@@ -4342,13 +4342,13 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1.028085297718515e-14</v>
+        <v>4.893800198271125e-09</v>
       </c>
       <c r="F135" t="n">
-        <v>7.710639732888862e-15</v>
+        <v>3.670350148703345e-09</v>
       </c>
       <c r="G135" t="n">
-        <v>1.285106622148144e-14</v>
+        <v>6.117250247838908e-09</v>
       </c>
     </row>
     <row r="136">
@@ -4371,13 +4371,13 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>2.570213244296287e-14</v>
+        <v>1.223450049567782e-08</v>
       </c>
       <c r="F136" t="n">
-        <v>1.927659933222215e-14</v>
+        <v>9.17587537175836e-09</v>
       </c>
       <c r="G136" t="n">
-        <v>3.212766555370359e-14</v>
+        <v>1.529312561959727e-08</v>
       </c>
     </row>
     <row r="137">
@@ -4400,13 +4400,13 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1.203432524579048e-13</v>
+        <v>1.436362198138726e-08</v>
       </c>
       <c r="F137" t="n">
-        <v>9.025743934342857e-14</v>
+        <v>1.077271648604045e-08</v>
       </c>
       <c r="G137" t="n">
-        <v>1.50429065572381e-13</v>
+        <v>1.795452747673408e-08</v>
       </c>
     </row>
     <row r="138">
@@ -4429,13 +4429,13 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2.406865049158095e-13</v>
+        <v>2.872724396277452e-08</v>
       </c>
       <c r="F138" t="n">
-        <v>1.805148786868571e-13</v>
+        <v>2.15454329720809e-08</v>
       </c>
       <c r="G138" t="n">
-        <v>3.00858131144762e-13</v>
+        <v>3.590905495346816e-08</v>
       </c>
     </row>
     <row r="139">
@@ -4458,13 +4458,13 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>6.01716262289524e-13</v>
+        <v>7.181810990693632e-08</v>
       </c>
       <c r="F139" t="n">
-        <v>4.512871967171429e-13</v>
+        <v>5.386358243020223e-08</v>
       </c>
       <c r="G139" t="n">
-        <v>7.521453278619049e-13</v>
+        <v>8.97726373836704e-08</v>
       </c>
     </row>
     <row r="140">
@@ -4487,13 +4487,13 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>7.772537292567252e-15</v>
+        <v>1.630847374215529e-09</v>
       </c>
       <c r="F140" t="n">
-        <v>5.82940296942544e-15</v>
+        <v>1.223135530661647e-09</v>
       </c>
       <c r="G140" t="n">
-        <v>9.715671615709067e-15</v>
+        <v>2.038559217769411e-09</v>
       </c>
     </row>
     <row r="141">
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1.55450745851345e-14</v>
+        <v>3.261694748431057e-09</v>
       </c>
       <c r="F141" t="n">
-        <v>1.165880593885088e-14</v>
+        <v>2.446271061323293e-09</v>
       </c>
       <c r="G141" t="n">
-        <v>1.943134323141813e-14</v>
+        <v>4.077118435538822e-09</v>
       </c>
     </row>
     <row r="142">
@@ -4545,13 +4545,13 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>3.886268646283627e-14</v>
+        <v>8.154236871077644e-09</v>
       </c>
       <c r="F142" t="n">
-        <v>2.91470148471272e-14</v>
+        <v>6.115677653308233e-09</v>
       </c>
       <c r="G142" t="n">
-        <v>4.857835807854534e-14</v>
+        <v>1.019279608884706e-08</v>
       </c>
     </row>
     <row r="143">
@@ -4574,13 +4574,13 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>269836.8677064556</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F143" t="n">
-        <v>202377.6507798417</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G143" t="n">
-        <v>337296.0846330696</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="144">
@@ -4603,13 +4603,13 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>539673.7354129113</v>
+        <v>84452.14439863086</v>
       </c>
       <c r="F144" t="n">
-        <v>404755.3015596835</v>
+        <v>63339.10829897314</v>
       </c>
       <c r="G144" t="n">
-        <v>674592.1692661392</v>
+        <v>105565.1804982886</v>
       </c>
     </row>
     <row r="145">
@@ -4632,13 +4632,13 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1349184.338532278</v>
+        <v>972.895279669608</v>
       </c>
       <c r="F145" t="n">
-        <v>1011888.253899209</v>
+        <v>729.6714597522059</v>
       </c>
       <c r="G145" t="n">
-        <v>1686480.423165348</v>
+        <v>1216.11909958701</v>
       </c>
     </row>
     <row r="146">
@@ -4661,13 +4661,13 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>195180.5293905482</v>
+        <v>29130.54433029818</v>
       </c>
       <c r="F146" t="n">
-        <v>146385.3970429112</v>
+        <v>21847.90824772364</v>
       </c>
       <c r="G146" t="n">
-        <v>243975.6617381853</v>
+        <v>36413.18041287273</v>
       </c>
     </row>
     <row r="147">
@@ -4690,13 +4690,13 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>390361.0587810964</v>
+        <v>59643.94480538867</v>
       </c>
       <c r="F147" t="n">
-        <v>292770.7940858224</v>
+        <v>44732.95860404151</v>
       </c>
       <c r="G147" t="n">
-        <v>487951.3234763706</v>
+        <v>74554.93100673585</v>
       </c>
     </row>
     <row r="148">
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>975902.6469527412</v>
+        <v>170721.5856987517</v>
       </c>
       <c r="F148" t="n">
-        <v>731926.9852145559</v>
+        <v>128041.1892740638</v>
       </c>
       <c r="G148" t="n">
-        <v>1219878.308690927</v>
+        <v>213401.9821234396</v>
       </c>
     </row>
     <row r="149">
@@ -4748,13 +4748,13 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>2.007605574262423e-08</v>
+        <v>0.00017111469569518</v>
       </c>
       <c r="F149" t="n">
-        <v>1.505704180696817e-08</v>
+        <v>0.000128336021771385</v>
       </c>
       <c r="G149" t="n">
-        <v>2.509506967828029e-08</v>
+        <v>0.000213893369618975</v>
       </c>
     </row>
     <row r="150">
@@ -4777,13 +4777,13 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>4.015211148524845e-08</v>
+        <v>0.00034222939139036</v>
       </c>
       <c r="F150" t="n">
-        <v>3.011408361393635e-08</v>
+        <v>0.00025667204354277</v>
       </c>
       <c r="G150" t="n">
-        <v>5.019013935656057e-08</v>
+        <v>0.0004277867392379501</v>
       </c>
     </row>
     <row r="151">
@@ -4806,13 +4806,13 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1.003802787131211e-07</v>
+        <v>0.0008555734784759002</v>
       </c>
       <c r="F151" t="n">
-        <v>7.528520903484085e-08</v>
+        <v>0.0006416801088569252</v>
       </c>
       <c r="G151" t="n">
-        <v>1.254753483914015e-07</v>
+        <v>0.001069466848094875</v>
       </c>
     </row>
     <row r="152">
@@ -4835,13 +4835,13 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3.533205994292416e-15</v>
+        <v>3.27264899788595e-09</v>
       </c>
       <c r="F152" t="n">
-        <v>2.649904495719312e-15</v>
+        <v>2.454486748414463e-09</v>
       </c>
       <c r="G152" t="n">
-        <v>4.416507492865522e-15</v>
+        <v>4.090811247357439e-09</v>
       </c>
     </row>
     <row r="153">
@@ -4864,13 +4864,13 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>7.066411988584832e-15</v>
+        <v>6.5452979957719e-09</v>
       </c>
       <c r="F153" t="n">
-        <v>5.299808991438625e-15</v>
+        <v>4.908973496828926e-09</v>
       </c>
       <c r="G153" t="n">
-        <v>8.833014985731043e-15</v>
+        <v>8.181622494714877e-09</v>
       </c>
     </row>
     <row r="154">
@@ -4893,13 +4893,13 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1.766602997146209e-14</v>
+        <v>1.636324498942975e-08</v>
       </c>
       <c r="F154" t="n">
-        <v>1.324952247859656e-14</v>
+        <v>1.227243374207232e-08</v>
       </c>
       <c r="G154" t="n">
-        <v>2.208253746432761e-14</v>
+        <v>2.045405623678719e-08</v>
       </c>
     </row>
     <row r="155">
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>5.140426488592574e-15</v>
+        <v>2.446900099135562e-09</v>
       </c>
       <c r="F155" t="n">
-        <v>3.855319866444431e-15</v>
+        <v>1.835175074351672e-09</v>
       </c>
       <c r="G155" t="n">
-        <v>6.425533110740718e-15</v>
+        <v>3.058625123919454e-09</v>
       </c>
     </row>
     <row r="156">
@@ -4951,13 +4951,13 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1.028085297718515e-14</v>
+        <v>4.893800198271125e-09</v>
       </c>
       <c r="F156" t="n">
-        <v>7.710639732888862e-15</v>
+        <v>3.670350148703345e-09</v>
       </c>
       <c r="G156" t="n">
-        <v>1.285106622148144e-14</v>
+        <v>6.117250247838908e-09</v>
       </c>
     </row>
     <row r="157">
@@ -4980,13 +4980,13 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>2.570213244296287e-14</v>
+        <v>1.223450049567782e-08</v>
       </c>
       <c r="F157" t="n">
-        <v>1.927659933222215e-14</v>
+        <v>9.17587537175836e-09</v>
       </c>
       <c r="G157" t="n">
-        <v>3.212766555370359e-14</v>
+        <v>1.529312561959727e-08</v>
       </c>
     </row>
     <row r="158">
@@ -5009,13 +5009,13 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1.203432524579048e-13</v>
+        <v>1.436362198138726e-08</v>
       </c>
       <c r="F158" t="n">
-        <v>9.025743934342857e-14</v>
+        <v>1.077271648604045e-08</v>
       </c>
       <c r="G158" t="n">
-        <v>1.50429065572381e-13</v>
+        <v>1.795452747673408e-08</v>
       </c>
     </row>
     <row r="159">
@@ -5038,13 +5038,13 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2.406865049158095e-13</v>
+        <v>2.872724396277452e-08</v>
       </c>
       <c r="F159" t="n">
-        <v>1.805148786868571e-13</v>
+        <v>2.15454329720809e-08</v>
       </c>
       <c r="G159" t="n">
-        <v>3.00858131144762e-13</v>
+        <v>3.590905495346816e-08</v>
       </c>
     </row>
     <row r="160">
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>6.01716262289524e-13</v>
+        <v>7.181810990693632e-08</v>
       </c>
       <c r="F160" t="n">
-        <v>4.512871967171429e-13</v>
+        <v>5.386358243020223e-08</v>
       </c>
       <c r="G160" t="n">
-        <v>7.521453278619049e-13</v>
+        <v>8.97726373836704e-08</v>
       </c>
     </row>
     <row r="161">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>7.772537292567252e-15</v>
+        <v>1.630847374215529e-09</v>
       </c>
       <c r="F161" t="n">
-        <v>5.82940296942544e-15</v>
+        <v>1.223135530661647e-09</v>
       </c>
       <c r="G161" t="n">
-        <v>9.715671615709067e-15</v>
+        <v>2.038559217769411e-09</v>
       </c>
     </row>
     <row r="162">
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1.55450745851345e-14</v>
+        <v>3.261694748431057e-09</v>
       </c>
       <c r="F162" t="n">
-        <v>1.165880593885088e-14</v>
+        <v>2.446271061323293e-09</v>
       </c>
       <c r="G162" t="n">
-        <v>1.943134323141813e-14</v>
+        <v>4.077118435538822e-09</v>
       </c>
     </row>
     <row r="163">
@@ -5154,13 +5154,13 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>3.886268646283627e-14</v>
+        <v>8.154236871077644e-09</v>
       </c>
       <c r="F163" t="n">
-        <v>2.91470148471272e-14</v>
+        <v>6.115677653308233e-09</v>
       </c>
       <c r="G163" t="n">
-        <v>4.857835807854534e-14</v>
+        <v>1.019279608884706e-08</v>
       </c>
     </row>
     <row r="164">
@@ -5183,13 +5183,13 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>269836.8677064556</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F164" t="n">
-        <v>202377.6507798417</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G164" t="n">
-        <v>337296.0846330696</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="165">
@@ -5212,13 +5212,13 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>539673.7354129113</v>
+        <v>84452.14439863086</v>
       </c>
       <c r="F165" t="n">
-        <v>404755.3015596835</v>
+        <v>63339.10829897314</v>
       </c>
       <c r="G165" t="n">
-        <v>674592.1692661392</v>
+        <v>105565.1804982886</v>
       </c>
     </row>
     <row r="166">
@@ -5241,13 +5241,13 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1349184.338532278</v>
+        <v>972.895279669608</v>
       </c>
       <c r="F166" t="n">
-        <v>1011888.253899209</v>
+        <v>729.6714597522059</v>
       </c>
       <c r="G166" t="n">
-        <v>1686480.423165348</v>
+        <v>1216.11909958701</v>
       </c>
     </row>
     <row r="167">
@@ -5270,13 +5270,13 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>195180.5293905482</v>
+        <v>29130.54433029818</v>
       </c>
       <c r="F167" t="n">
-        <v>146385.3970429112</v>
+        <v>21847.90824772364</v>
       </c>
       <c r="G167" t="n">
-        <v>243975.6617381853</v>
+        <v>36413.18041287273</v>
       </c>
     </row>
     <row r="168">
@@ -5299,13 +5299,13 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>390361.0587810964</v>
+        <v>59643.94480538867</v>
       </c>
       <c r="F168" t="n">
-        <v>292770.7940858224</v>
+        <v>44732.95860404151</v>
       </c>
       <c r="G168" t="n">
-        <v>487951.3234763706</v>
+        <v>74554.93100673585</v>
       </c>
     </row>
     <row r="169">
@@ -5328,13 +5328,13 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>975902.6469527412</v>
+        <v>170721.5856987517</v>
       </c>
       <c r="F169" t="n">
-        <v>731926.9852145559</v>
+        <v>128041.1892740638</v>
       </c>
       <c r="G169" t="n">
-        <v>1219878.308690927</v>
+        <v>213401.9821234396</v>
       </c>
     </row>
     <row r="170">
@@ -5357,13 +5357,13 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.007605574262423e-08</v>
+        <v>0.00017111469569518</v>
       </c>
       <c r="F170" t="n">
-        <v>1.505704180696817e-08</v>
+        <v>0.000128336021771385</v>
       </c>
       <c r="G170" t="n">
-        <v>2.509506967828029e-08</v>
+        <v>0.000213893369618975</v>
       </c>
     </row>
     <row r="171">
@@ -5386,13 +5386,13 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>4.015211148524845e-08</v>
+        <v>0.00034222939139036</v>
       </c>
       <c r="F171" t="n">
-        <v>3.011408361393635e-08</v>
+        <v>0.00025667204354277</v>
       </c>
       <c r="G171" t="n">
-        <v>5.019013935656057e-08</v>
+        <v>0.0004277867392379501</v>
       </c>
     </row>
     <row r="172">
@@ -5415,13 +5415,13 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1.003802787131211e-07</v>
+        <v>0.0008555734784759002</v>
       </c>
       <c r="F172" t="n">
-        <v>7.528520903484085e-08</v>
+        <v>0.0006416801088569252</v>
       </c>
       <c r="G172" t="n">
-        <v>1.254753483914015e-07</v>
+        <v>0.001069466848094875</v>
       </c>
     </row>
     <row r="173">
@@ -5444,13 +5444,13 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.533205994292416e-15</v>
+        <v>3.27264899788595e-09</v>
       </c>
       <c r="F173" t="n">
-        <v>2.649904495719312e-15</v>
+        <v>2.454486748414463e-09</v>
       </c>
       <c r="G173" t="n">
-        <v>4.416507492865522e-15</v>
+        <v>4.090811247357439e-09</v>
       </c>
     </row>
     <row r="174">
@@ -5473,13 +5473,13 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>7.066411988584832e-15</v>
+        <v>6.5452979957719e-09</v>
       </c>
       <c r="F174" t="n">
-        <v>5.299808991438625e-15</v>
+        <v>4.908973496828926e-09</v>
       </c>
       <c r="G174" t="n">
-        <v>8.833014985731043e-15</v>
+        <v>8.181622494714877e-09</v>
       </c>
     </row>
     <row r="175">
@@ -5502,13 +5502,13 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1.766602997146209e-14</v>
+        <v>1.636324498942975e-08</v>
       </c>
       <c r="F175" t="n">
-        <v>1.324952247859656e-14</v>
+        <v>1.227243374207232e-08</v>
       </c>
       <c r="G175" t="n">
-        <v>2.208253746432761e-14</v>
+        <v>2.045405623678719e-08</v>
       </c>
     </row>
     <row r="176">
@@ -5531,13 +5531,13 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>5.140426488592574e-15</v>
+        <v>2.446900099135562e-09</v>
       </c>
       <c r="F176" t="n">
-        <v>3.855319866444431e-15</v>
+        <v>1.835175074351672e-09</v>
       </c>
       <c r="G176" t="n">
-        <v>6.425533110740718e-15</v>
+        <v>3.058625123919454e-09</v>
       </c>
     </row>
     <row r="177">
@@ -5560,13 +5560,13 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1.028085297718515e-14</v>
+        <v>4.893800198271125e-09</v>
       </c>
       <c r="F177" t="n">
-        <v>7.710639732888862e-15</v>
+        <v>3.670350148703345e-09</v>
       </c>
       <c r="G177" t="n">
-        <v>1.285106622148144e-14</v>
+        <v>6.117250247838908e-09</v>
       </c>
     </row>
     <row r="178">
@@ -5589,13 +5589,13 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>2.570213244296287e-14</v>
+        <v>1.223450049567782e-08</v>
       </c>
       <c r="F178" t="n">
-        <v>1.927659933222215e-14</v>
+        <v>9.17587537175836e-09</v>
       </c>
       <c r="G178" t="n">
-        <v>3.212766555370359e-14</v>
+        <v>1.529312561959727e-08</v>
       </c>
     </row>
     <row r="179">
@@ -5618,13 +5618,13 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1.203432524579048e-13</v>
+        <v>1.436362198138726e-08</v>
       </c>
       <c r="F179" t="n">
-        <v>9.025743934342857e-14</v>
+        <v>1.077271648604045e-08</v>
       </c>
       <c r="G179" t="n">
-        <v>1.50429065572381e-13</v>
+        <v>1.795452747673408e-08</v>
       </c>
     </row>
     <row r="180">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2.406865049158095e-13</v>
+        <v>2.872724396277452e-08</v>
       </c>
       <c r="F180" t="n">
-        <v>1.805148786868571e-13</v>
+        <v>2.15454329720809e-08</v>
       </c>
       <c r="G180" t="n">
-        <v>3.00858131144762e-13</v>
+        <v>3.590905495346816e-08</v>
       </c>
     </row>
     <row r="181">
@@ -5676,13 +5676,13 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>6.01716262289524e-13</v>
+        <v>7.181810990693632e-08</v>
       </c>
       <c r="F181" t="n">
-        <v>4.512871967171429e-13</v>
+        <v>5.386358243020223e-08</v>
       </c>
       <c r="G181" t="n">
-        <v>7.521453278619049e-13</v>
+        <v>8.97726373836704e-08</v>
       </c>
     </row>
     <row r="182">
@@ -5705,13 +5705,13 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>7.772537292567252e-15</v>
+        <v>1.630847374215529e-09</v>
       </c>
       <c r="F182" t="n">
-        <v>5.82940296942544e-15</v>
+        <v>1.223135530661647e-09</v>
       </c>
       <c r="G182" t="n">
-        <v>9.715671615709067e-15</v>
+        <v>2.038559217769411e-09</v>
       </c>
     </row>
     <row r="183">
@@ -5734,13 +5734,13 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1.55450745851345e-14</v>
+        <v>3.261694748431057e-09</v>
       </c>
       <c r="F183" t="n">
-        <v>1.165880593885088e-14</v>
+        <v>2.446271061323293e-09</v>
       </c>
       <c r="G183" t="n">
-        <v>1.943134323141813e-14</v>
+        <v>4.077118435538822e-09</v>
       </c>
     </row>
     <row r="184">
@@ -5763,13 +5763,13 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>3.886268646283627e-14</v>
+        <v>8.154236871077644e-09</v>
       </c>
       <c r="F184" t="n">
-        <v>2.91470148471272e-14</v>
+        <v>6.115677653308233e-09</v>
       </c>
       <c r="G184" t="n">
-        <v>4.857835807854534e-14</v>
+        <v>1.019279608884706e-08</v>
       </c>
     </row>
     <row r="185">
@@ -5792,13 +5792,13 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>269836.8677064556</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F185" t="n">
-        <v>202377.6507798417</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G185" t="n">
-        <v>337296.0846330696</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="186">
@@ -5821,13 +5821,13 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>539673.7354129113</v>
+        <v>84452.14439863086</v>
       </c>
       <c r="F186" t="n">
-        <v>404755.3015596835</v>
+        <v>63339.10829897314</v>
       </c>
       <c r="G186" t="n">
-        <v>674592.1692661392</v>
+        <v>105565.1804982886</v>
       </c>
     </row>
     <row r="187">
@@ -5850,13 +5850,13 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1349184.338532278</v>
+        <v>972.895279669608</v>
       </c>
       <c r="F187" t="n">
-        <v>1011888.253899209</v>
+        <v>729.6714597522059</v>
       </c>
       <c r="G187" t="n">
-        <v>1686480.423165348</v>
+        <v>1216.11909958701</v>
       </c>
     </row>
     <row r="188">
@@ -5879,13 +5879,13 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>195180.5293905482</v>
+        <v>29130.54433029818</v>
       </c>
       <c r="F188" t="n">
-        <v>146385.3970429112</v>
+        <v>21847.90824772364</v>
       </c>
       <c r="G188" t="n">
-        <v>243975.6617381853</v>
+        <v>36413.18041287273</v>
       </c>
     </row>
     <row r="189">
@@ -5908,13 +5908,13 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>390361.0587810964</v>
+        <v>59643.94480538867</v>
       </c>
       <c r="F189" t="n">
-        <v>292770.7940858224</v>
+        <v>44732.95860404151</v>
       </c>
       <c r="G189" t="n">
-        <v>487951.3234763706</v>
+        <v>74554.93100673585</v>
       </c>
     </row>
     <row r="190">
@@ -5937,13 +5937,13 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>975902.6469527412</v>
+        <v>170721.5856987517</v>
       </c>
       <c r="F190" t="n">
-        <v>731926.9852145559</v>
+        <v>128041.1892740638</v>
       </c>
       <c r="G190" t="n">
-        <v>1219878.308690927</v>
+        <v>213401.9821234396</v>
       </c>
     </row>
     <row r="191">
@@ -5966,13 +5966,13 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>2.007605574262423e-08</v>
+        <v>0.00017111469569518</v>
       </c>
       <c r="F191" t="n">
-        <v>1.505704180696817e-08</v>
+        <v>0.000128336021771385</v>
       </c>
       <c r="G191" t="n">
-        <v>2.509506967828029e-08</v>
+        <v>0.000213893369618975</v>
       </c>
     </row>
     <row r="192">
@@ -5995,13 +5995,13 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>4.015211148524845e-08</v>
+        <v>0.00034222939139036</v>
       </c>
       <c r="F192" t="n">
-        <v>3.011408361393635e-08</v>
+        <v>0.00025667204354277</v>
       </c>
       <c r="G192" t="n">
-        <v>5.019013935656057e-08</v>
+        <v>0.0004277867392379501</v>
       </c>
     </row>
     <row r="193">
@@ -6024,13 +6024,13 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1.003802787131211e-07</v>
+        <v>0.0008555734784759002</v>
       </c>
       <c r="F193" t="n">
-        <v>7.528520903484085e-08</v>
+        <v>0.0006416801088569252</v>
       </c>
       <c r="G193" t="n">
-        <v>1.254753483914015e-07</v>
+        <v>0.001069466848094875</v>
       </c>
     </row>
     <row r="194">
@@ -6053,13 +6053,13 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>3.533205994292416e-15</v>
+        <v>3.27264899788595e-09</v>
       </c>
       <c r="F194" t="n">
-        <v>2.649904495719312e-15</v>
+        <v>2.454486748414463e-09</v>
       </c>
       <c r="G194" t="n">
-        <v>4.416507492865522e-15</v>
+        <v>4.090811247357439e-09</v>
       </c>
     </row>
     <row r="195">
@@ -6082,13 +6082,13 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>7.066411988584832e-15</v>
+        <v>6.5452979957719e-09</v>
       </c>
       <c r="F195" t="n">
-        <v>5.299808991438625e-15</v>
+        <v>4.908973496828926e-09</v>
       </c>
       <c r="G195" t="n">
-        <v>8.833014985731043e-15</v>
+        <v>8.181622494714877e-09</v>
       </c>
     </row>
     <row r="196">
@@ -6111,13 +6111,13 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1.766602997146209e-14</v>
+        <v>1.636324498942975e-08</v>
       </c>
       <c r="F196" t="n">
-        <v>1.324952247859656e-14</v>
+        <v>1.227243374207232e-08</v>
       </c>
       <c r="G196" t="n">
-        <v>2.208253746432761e-14</v>
+        <v>2.045405623678719e-08</v>
       </c>
     </row>
     <row r="197">
@@ -6140,13 +6140,13 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5.140426488592574e-15</v>
+        <v>2.446900099135562e-09</v>
       </c>
       <c r="F197" t="n">
-        <v>3.855319866444431e-15</v>
+        <v>1.835175074351672e-09</v>
       </c>
       <c r="G197" t="n">
-        <v>6.425533110740718e-15</v>
+        <v>3.058625123919454e-09</v>
       </c>
     </row>
     <row r="198">
@@ -6169,13 +6169,13 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>1.028085297718515e-14</v>
+        <v>4.893800198271125e-09</v>
       </c>
       <c r="F198" t="n">
-        <v>7.710639732888862e-15</v>
+        <v>3.670350148703345e-09</v>
       </c>
       <c r="G198" t="n">
-        <v>1.285106622148144e-14</v>
+        <v>6.117250247838908e-09</v>
       </c>
     </row>
     <row r="199">
@@ -6198,13 +6198,13 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>2.570213244296287e-14</v>
+        <v>1.223450049567782e-08</v>
       </c>
       <c r="F199" t="n">
-        <v>1.927659933222215e-14</v>
+        <v>9.17587537175836e-09</v>
       </c>
       <c r="G199" t="n">
-        <v>3.212766555370359e-14</v>
+        <v>1.529312561959727e-08</v>
       </c>
     </row>
     <row r="200">
@@ -6227,13 +6227,13 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1.203432524579048e-13</v>
+        <v>1.436362198138726e-08</v>
       </c>
       <c r="F200" t="n">
-        <v>9.025743934342857e-14</v>
+        <v>1.077271648604045e-08</v>
       </c>
       <c r="G200" t="n">
-        <v>1.50429065572381e-13</v>
+        <v>1.795452747673408e-08</v>
       </c>
     </row>
     <row r="201">
@@ -6256,13 +6256,13 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>2.406865049158095e-13</v>
+        <v>2.872724396277452e-08</v>
       </c>
       <c r="F201" t="n">
-        <v>1.805148786868571e-13</v>
+        <v>2.15454329720809e-08</v>
       </c>
       <c r="G201" t="n">
-        <v>3.00858131144762e-13</v>
+        <v>3.590905495346816e-08</v>
       </c>
     </row>
     <row r="202">
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>6.01716262289524e-13</v>
+        <v>7.181810990693632e-08</v>
       </c>
       <c r="F202" t="n">
-        <v>4.512871967171429e-13</v>
+        <v>5.386358243020223e-08</v>
       </c>
       <c r="G202" t="n">
-        <v>7.521453278619049e-13</v>
+        <v>8.97726373836704e-08</v>
       </c>
     </row>
     <row r="203">
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7.772537292567252e-15</v>
+        <v>1.630847374215529e-09</v>
       </c>
       <c r="F203" t="n">
-        <v>5.82940296942544e-15</v>
+        <v>1.223135530661647e-09</v>
       </c>
       <c r="G203" t="n">
-        <v>9.715671615709067e-15</v>
+        <v>2.038559217769411e-09</v>
       </c>
     </row>
     <row r="204">
@@ -6343,13 +6343,13 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1.55450745851345e-14</v>
+        <v>3.261694748431057e-09</v>
       </c>
       <c r="F204" t="n">
-        <v>1.165880593885088e-14</v>
+        <v>2.446271061323293e-09</v>
       </c>
       <c r="G204" t="n">
-        <v>1.943134323141813e-14</v>
+        <v>4.077118435538822e-09</v>
       </c>
     </row>
     <row r="205">
@@ -6372,13 +6372,13 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>3.886268646283627e-14</v>
+        <v>8.154236871077644e-09</v>
       </c>
       <c r="F205" t="n">
-        <v>2.91470148471272e-14</v>
+        <v>6.115677653308233e-09</v>
       </c>
       <c r="G205" t="n">
-        <v>4.857835807854534e-14</v>
+        <v>1.019279608884706e-08</v>
       </c>
     </row>
     <row r="206">
@@ -6401,13 +6401,13 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>269836.8677064556</v>
+        <v>41642.33503151366</v>
       </c>
       <c r="F206" t="n">
-        <v>202377.6507798417</v>
+        <v>31231.75127363525</v>
       </c>
       <c r="G206" t="n">
-        <v>337296.0846330696</v>
+        <v>52052.91878939208</v>
       </c>
     </row>
     <row r="207">
@@ -6430,13 +6430,13 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>539673.7354129113</v>
+        <v>84452.14439863086</v>
       </c>
       <c r="F207" t="n">
-        <v>404755.3015596835</v>
+        <v>63339.10829897314</v>
       </c>
       <c r="G207" t="n">
-        <v>674592.1692661392</v>
+        <v>105565.1804982886</v>
       </c>
     </row>
     <row r="208">
@@ -6459,13 +6459,13 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1349184.338532278</v>
+        <v>972.895279669608</v>
       </c>
       <c r="F208" t="n">
-        <v>1011888.253899209</v>
+        <v>729.6714597522059</v>
       </c>
       <c r="G208" t="n">
-        <v>1686480.423165348</v>
+        <v>1216.11909958701</v>
       </c>
     </row>
     <row r="209">
@@ -6488,13 +6488,13 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>195180.5293905482</v>
+        <v>29130.54433029818</v>
       </c>
       <c r="F209" t="n">
-        <v>146385.3970429112</v>
+        <v>21847.90824772364</v>
       </c>
       <c r="G209" t="n">
-        <v>243975.6617381853</v>
+        <v>36413.18041287273</v>
       </c>
     </row>
     <row r="210">
@@ -6517,13 +6517,13 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>390361.0587810964</v>
+        <v>59643.94480538867</v>
       </c>
       <c r="F210" t="n">
-        <v>292770.7940858224</v>
+        <v>44732.95860404151</v>
       </c>
       <c r="G210" t="n">
-        <v>487951.3234763706</v>
+        <v>74554.93100673585</v>
       </c>
     </row>
     <row r="211">
@@ -6546,13 +6546,13 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>975902.6469527412</v>
+        <v>170721.5856987517</v>
       </c>
       <c r="F211" t="n">
-        <v>731926.9852145559</v>
+        <v>128041.1892740638</v>
       </c>
       <c r="G211" t="n">
-        <v>1219878.308690927</v>
+        <v>213401.9821234396</v>
       </c>
     </row>
   </sheetData>
